--- a/biology/Biologie cellulaire et moléculaire/CD47/CD47.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/CD47/CD47.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le CD47 est une protéine de type cluster de différenciation. Son gène, CD47 est situé sur le chromosome 3 humain. 
 </t>
@@ -511,9 +523,11 @@
           <t>Rôle</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il interagit avec le SIRPα situé sur la membrane des macrophages et inhibe la phagocytose[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il interagit avec le SIRPα situé sur la membrane des macrophages et inhibe la phagocytose.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>En médecine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est exprimé sur certaines cellules des leucémies myéloïdes[5] ainsi que sur celles des lymphomes non hodgkiniens[6]. Cette expression est corrélé avec un plus mauvais pronostic[7], ce qui en constitue une cible thérapeutique.
-Un anticorps monoclonal dirigé contre le CD47 a été utilisé en combinaison avec le rituximab dans certaines lymphomes résistants, donnant des résultats prometteurs quant au taux de réponse[8].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est exprimé sur certaines cellules des leucémies myéloïdes ainsi que sur celles des lymphomes non hodgkiniens. Cette expression est corrélé avec un plus mauvais pronostic, ce qui en constitue une cible thérapeutique.
+Un anticorps monoclonal dirigé contre le CD47 a été utilisé en combinaison avec le rituximab dans certaines lymphomes résistants, donnant des résultats prometteurs quant au taux de réponse.
 </t>
         </is>
       </c>
